--- a/Q3/Classified result4.xlsx
+++ b/Q3/Classified result4.xlsx
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="IJ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="IK1">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="YA1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="YB1">
         <v>2</v>
